--- a/log_history/Y3_B2526_Biochemistry_Lab_CBL_scanner1762075335040_2cd72d2341f23e02a3517b7e8d4241ff0ee3a2d6d331565d49c0aab54dd06cc1.xlsx
+++ b/log_history/Y3_B2526_Biochemistry_Lab_CBL_scanner1762075335040_2cd72d2341f23e02a3517b7e8d4241ff0ee3a2d6d331565d49c0aab54dd06cc1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Biochemistry_Lab_CBL" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
